--- a/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.208702717565428</v>
+        <v>0.791297282434572</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.771081314505595</v>
+        <v>0.228918685494405</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.607707611622811</v>
+        <v>0.392292388377189</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.213357322123568</v>
+        <v>0.7866426778764321</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4.46015725596993e-06</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0092592592592592</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.648148148148148</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.0805746220050421</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.112153704843433</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0409377384370301</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-8.18016467056265</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.231067807569173</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.807692307692308</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.615</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0110377747252747</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0329093530811673</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0135550089694712</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.103982804760006</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.352697975765322</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0886075949367089</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.221518987341772</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0001762789575289</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0002969672854195</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.990425666935044</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0063291139240506</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.765822784810127</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-16.3058035714286</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-29.9808991472152</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-4.30356527669297</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-4.83134920634921</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0002786814977953</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.546666666666667</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.546666666666667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0065669464426259</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0002226714329339</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0006061691088062</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.39079106064493</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0096517136798669</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.290540540540541</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.101351351351351</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001414994269623</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.068406788666695</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.135135135135135</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.682432432432432</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0007289975905242</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0016449030059282</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.82249397631057</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.999998319241153</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.532467532467532</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0267013093289689</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0150379798844783</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0379518398938292</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.328025913132296</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0185314339365179</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0316455696202532</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.689873417721519</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0020166102101781</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0002679530674234</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0035724175521093</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.96560325026202</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0528435201272351</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.550632911392405</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0045863356726724</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0091945033225307</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.38979868868862</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.62794502207762</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.39873417721519</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0007077260392092</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0004537267080745</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hautapu at d/s Taihape STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.181242444870115</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.911392405063291</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0469279466421736</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0427254137317682</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.124996527765865</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.34850421385556</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1841577.109</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5603628.214</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Middle Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_2g</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.79121675974942</v>
+        <v>0.5672284177938109</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.295</v>
+        <v>0.32</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0153446476843408</v>
+        <v>0.0031623376623376</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0147084963926087</v>
+        <v>-0.0319362109188283</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0543802302086488</v>
+        <v>0.0362838789417551</v>
       </c>
       <c r="N2" t="n">
-        <v>5.20157548621722</v>
+        <v>0.98823051948052</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.791297282434572</v>
+        <v>0.470616203057875</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.896551724137931</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.76</v>
+        <v>10.69</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0501717032967038</v>
+        <v>-0.0126413017129931</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0278014122943355</v>
+        <v>-0.068532733275216</v>
       </c>
       <c r="M3" t="n">
-        <v>0.164235686116161</v>
+        <v>0.08940183764171269</v>
       </c>
       <c r="N3" t="n">
-        <v>0.466279770415463</v>
+        <v>-0.118253523975613</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7579166259665</v>
+        <v>0.0593242574056613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0115</v>
+        <v>0.012</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0003727040816326</v>
+        <v>0.0007905844155844</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0015243838023455</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0005217857142857</v>
+        <v>0.0017814659381362</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.24090505767524</v>
+        <v>6.58820346320346</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.177163199993502</v>
+        <v>0.909123998008353</v>
       </c>
       <c r="G5" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.706896551724138</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>225</v>
       </c>
       <c r="K5" t="n">
-        <v>15.5371338912134</v>
+        <v>-21.1534749034749</v>
       </c>
       <c r="L5" t="n">
-        <v>-14.1093249797698</v>
+        <v>-47.6754252626216</v>
       </c>
       <c r="M5" t="n">
-        <v>40.5924740517498</v>
+        <v>4.64754301108875</v>
       </c>
       <c r="N5" t="n">
-        <v>6.90539284053928</v>
+        <v>-9.401544401544401</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.390582519655344</v>
+        <v>0.948343747675874</v>
       </c>
       <c r="G6" t="n">
-        <v>0.269230769230769</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="H6" t="n">
-        <v>0.826923076923077</v>
+        <v>0.814814814814815</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0332973472140683</v>
+        <v>0.0280970856866042</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0037490822897794</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0028164563861399</v>
+        <v>-0.008178162425034099</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0041077420107023</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-13.343313721561</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.287584867816593</v>
+        <v>0.875797852548527</v>
       </c>
       <c r="G7" t="n">
-        <v>0.206896551724138</v>
+        <v>0.189655172413793</v>
       </c>
       <c r="H7" t="n">
         <v>0.189655172413793</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0004161710388876</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002419051869769</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,31 +1119,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.865596628226167</v>
+        <v>0.0607942317438832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0344827586206897</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.896551724137931</v>
+        <v>0.879310344827586</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0455</v>
+        <v>0.042</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.00491204866562</v>
+        <v>0.0035120192307692</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0149682813376741</v>
+        <v>-0.0004993697311721</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0014392486542754</v>
+        <v>0.0077037941253629</v>
       </c>
       <c r="N8" t="n">
-        <v>-10.7957113530112</v>
+        <v>8.361950549450549</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.228918685494405</v>
+        <v>0.37784120250697</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.75</v>
+        <v>0.696428571428571</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>8.220000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0181578329554367</v>
+        <v>-0.0054352678571427</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0473968298687305</v>
+        <v>-0.0413950950998802</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0168317972350227</v>
+        <v>0.0225607791773623</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.220898211136699</v>
+        <v>-0.066122480013902</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,31 +1297,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8949438362350171</v>
+        <v>0.529383796942125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.879310344827586</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0077203837515867</v>
+        <v>-0.0009186142804563</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0181009320819167</v>
+        <v>-0.0083404236883006</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0025666572768155</v>
+        <v>0.0102827806332407</v>
       </c>
       <c r="N10" t="n">
-        <v>-9.190933037603291</v>
+        <v>-1.04387986415498</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.795167941967369</v>
+        <v>0.297860500994322</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.413793103448276</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.5</v>
+        <v>0.365</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.498466138407699</v>
+        <v>0.0065496114763897</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.49125915359741</v>
+        <v>-0.016287875130807</v>
       </c>
       <c r="M11" t="n">
-        <v>0.332347588717015</v>
+        <v>0.0270784192344719</v>
       </c>
       <c r="N11" t="n">
-        <v>-7.6687098216569</v>
+        <v>1.79441410312047</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.7938610447479379</v>
+        <v>0.0286772687195994</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.620689655172414</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.36</v>
+        <v>0.035</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0099865580847723</v>
+        <v>0.0023990147783251</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.030103021978022</v>
+        <v>1.06759124735492e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0133536860501029</v>
+        <v>0.0042711098811862</v>
       </c>
       <c r="N12" t="n">
-        <v>-2.77404391243677</v>
+        <v>6.85432793807178</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.508037948289755</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.034</v>
+        <v>3.885</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.174666554894956</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0018199117859129</v>
+        <v>-0.282122471747903</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0022274578318741</v>
+        <v>0.729923745587483</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.49592161891779</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9619792620848781</v>
+        <v>2.95718203709994e-05</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.885</v>
+        <v>0.4275</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.481904003639673</v>
+        <v>-0.114402215431627</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.8587636507797251</v>
+        <v>-0.180085607527487</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0885976277801183</v>
+        <v>-0.0504695947338002</v>
       </c>
       <c r="N14" t="n">
-        <v>-12.4042214579066</v>
+        <v>-26.7607521477491</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1748,35 +1748,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.59074850251073e-08</v>
+        <v>0.48909222654941</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.746666666666667</v>
+        <v>0.817391304347826</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5</v>
+        <v>10.77</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.150521858758789</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.189958775288668</v>
+        <v>-0.0300141356995459</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.104272128547575</v>
+        <v>0.030281330150169</v>
       </c>
       <c r="N15" t="n">
-        <v>-30.1043717517579</v>
+        <v>0</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.998635558523671</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0517241379310345</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.293103448275862</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.392292388377189</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.826086956521739</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.77</v>
+        <v>0.014</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0087428210023491</v>
+        <v>-0.0007304405957818</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0370669845309432</v>
+        <v>-0.0011777669636335</v>
       </c>
       <c r="M16" t="n">
-        <v>0.025249504909989</v>
+        <v>-0.0003024844720496</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0811775394832788</v>
+        <v>-5.21743282701353</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.997685889157835</v>
+        <v>0.998469649661518</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0603448275862069</v>
+        <v>0.0086206896551724</v>
       </c>
       <c r="H17" t="n">
-        <v>0.301724137931034</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0145</v>
+        <v>290</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0007317196141281</v>
+        <v>-24.7171825396825</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0011951175072963</v>
+        <v>-39.9043989269176</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0002851288056206</v>
+        <v>-10.8672474929488</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.04634216640085</v>
+        <v>-8.52316639299398</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.908115727639154</v>
+        <v>5.80452693261941e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0086206896551724</v>
+        <v>0.490740740740741</v>
       </c>
       <c r="H18" t="n">
-        <v>0.741379310344828</v>
+        <v>0.648148148148148</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>305</v>
+        <v>0.010859600069747</v>
       </c>
       <c r="K18" t="n">
-        <v>-11.576793545632</v>
+        <v>0.0011974435920393</v>
       </c>
       <c r="L18" t="n">
-        <v>-26.1912073869773</v>
+        <v>0.0004178501717982</v>
       </c>
       <c r="M18" t="n">
-        <v>2.40222140222366</v>
+        <v>0.0021464576997314</v>
       </c>
       <c r="N18" t="n">
-        <v>-3.79567001496131</v>
+        <v>11.0265901538607</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.57128775920172e-06</v>
+        <v>0.335392213179848</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5462962962962959</v>
+        <v>0.198275862068966</v>
       </c>
       <c r="H19" t="n">
-        <v>0.583333333333333</v>
+        <v>0.129310344827586</v>
       </c>
       <c r="I19" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0069272257897327</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0010909687181074</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003868173306719</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0021237314782224</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>15.7489989675869</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.178999465580279</v>
+        <v>0.0002532592855378</v>
       </c>
       <c r="G20" t="n">
-        <v>0.181034482758621</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="H20" t="n">
-        <v>0.120689655172414</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.04155</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0025989326765188</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.0016721872526762</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001620452528837</v>
+        <v>0.0038193268162852</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>6.25495229005748</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0017966960500507</v>
+        <v>0.769698619614586</v>
       </c>
       <c r="G21" t="n">
-        <v>0.129310344827586</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.775862068965517</v>
+        <v>0.517857142857143</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0385</v>
+        <v>8.19</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0023078983516483</v>
+        <v>0.0030912878457376</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0011179499577826</v>
+        <v>-0.0060201451880022</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0033829849796005</v>
+        <v>0.0098891675607379</v>
       </c>
       <c r="N21" t="n">
-        <v>5.9945411731126</v>
+        <v>0.0377446623411191</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.7866426778764321</v>
+        <v>6.71993130396052e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0431034482758621</v>
       </c>
       <c r="H22" t="n">
-        <v>0.544642857142857</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>8.18</v>
+        <v>0.07305</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0033341280534754</v>
+        <v>0.0061974548440065</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0049931647300067</v>
+        <v>0.003746404444833</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0124812659766672</v>
+        <v>0.0103868586636488</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0407595116561786</v>
+        <v>8.483853311439519</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.20603503052936e-05</v>
+        <v>0.0008499643579367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0431034482758621</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.698275862068966</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.066</v>
+        <v>0.35</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0060206043956044</v>
+        <v>0.012437084148728</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0039997440363437</v>
+        <v>0.0051150691029085</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009699213387002499</v>
+        <v>0.0179668453562759</v>
       </c>
       <c r="N23" t="n">
-        <v>9.122127872127869</v>
+        <v>3.55345261392228</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.161636476786941</v>
+        <v>0.662832125090396</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0431034482758621</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.275862068965517</v>
+        <v>0.448275862068966</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.038</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0001445389790265</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.000998533291141</v>
       </c>
       <c r="M24" t="n">
-        <v>0.365485094792926</v>
+        <v>0.0006698383193399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-0.380365734280299</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0100389087609976</v>
+        <v>0.0134308033915959</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.637931034482759</v>
+        <v>0.922413793103448</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.329</v>
+        <v>3.78</v>
       </c>
       <c r="K25" t="n">
-        <v>0.009986329460013601</v>
+        <v>0.18705525606469</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0021696399057011</v>
+        <v>0.0498940049988653</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0150078849057695</v>
+        <v>0.405104350086675</v>
       </c>
       <c r="N25" t="n">
-        <v>3.0353584984844</v>
+        <v>4.94855174774312</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,14 +2734,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7310661920386</v>
+        <v>3.06327469401513e-06</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0088495575221238</v>
       </c>
       <c r="H26" t="n">
-        <v>0.431034482758621</v>
+        <v>0.628318584070796</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.037</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0002285742090437</v>
+        <v>-0.0764685960591133</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.102851639828225</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000488830529151</v>
+        <v>-0.0372560189038705</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.617768132550651</v>
+        <v>-9.55857450738916</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0294062179785395</v>
+        <v>0.301919862822091</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.931034482758621</v>
+        <v>0.80952380952381</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.44</v>
+        <v>10.615</v>
       </c>
       <c r="K27" t="n">
-        <v>0.135129120879121</v>
+        <v>-0.0083619505494506</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0152694587534485</v>
+        <v>-0.0299727442701969</v>
       </c>
       <c r="M27" t="n">
-        <v>0.26500462824161</v>
+        <v>0.0154374471682163</v>
       </c>
       <c r="N27" t="n">
-        <v>3.92817211857909</v>
+        <v>-0.07877485209091541</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.46015725596993e-06</v>
+        <v>0.301176470656429</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0092592592592592</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="H28" t="n">
-        <v>0.648148148148148</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.985</v>
+        <v>0.0125</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0805746220050421</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.112153704843433</v>
+        <v>-0.000123926323197</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0409377384370301</v>
+        <v>0.0002675824175824</v>
       </c>
       <c r="N28" t="n">
-        <v>-8.18016467056265</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9992717509180919</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0058823529411764</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.758823529411765</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.231067807569173</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.807692307692308</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>10.615</v>
+        <v>314.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0110377747252747</v>
+        <v>-19.2993254637437</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0329093530811673</v>
+        <v>-30.3494818252654</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0135550089694712</v>
+        <v>-8.116802093799221</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.103982804760006</v>
+        <v>-6.13651048131754</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.352697975765322</v>
+        <v>0.0001871882153229</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0886075949367089</v>
+        <v>0.524691358024691</v>
       </c>
       <c r="H30" t="n">
-        <v>0.221518987341772</v>
+        <v>0.561728395061728</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J30" t="n">
-        <v>0.012</v>
+        <v>0.006989658784137</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.0002356748390383</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0001762789575289</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0002969672854195</v>
+        <v>0.0006276282961035</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>3.37176457845358</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.990425666935044</v>
+        <v>0.0223576253337166</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0063291139240506</v>
+        <v>0.2875</v>
       </c>
       <c r="H31" t="n">
-        <v>0.765822784810127</v>
+        <v>0.09375</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>337.5</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.3058035714286</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-29.9808991472152</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-4.30356527669297</v>
+        <v>0.000111254949741</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.83134920634921</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0002786814977953</v>
+        <v>0.0046380840633554</v>
       </c>
       <c r="G32" t="n">
-        <v>0.546666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="H32" t="n">
-        <v>0.546666666666667</v>
+        <v>0.6875</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0065669464426259</v>
+        <v>0.04105</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0002226714329339</v>
+        <v>0.0011963347971901</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0003859636495002</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0006061691088062</v>
+        <v>0.002054257575569</v>
       </c>
       <c r="N32" t="n">
-        <v>3.39079106064493</v>
+        <v>2.91433568134019</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0096517136798669</v>
+        <v>0.999999405076669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.290540540540541</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.101351351351351</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.003</v>
+        <v>8.15</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0234457114854842</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.0137485775579161</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001414994269623</v>
+        <v>0.0320928515631504</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.287677441539684</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3469,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.068406788666695</v>
+        <v>0.0020897284198885</v>
       </c>
       <c r="G34" t="n">
-        <v>0.135135135135135</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H34" t="n">
-        <v>0.682432432432432</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04</v>
+        <v>0.06950000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0007289975905242</v>
+        <v>0.0022097308108863</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0008438316979447</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0016449030059282</v>
+        <v>0.0037303023167155</v>
       </c>
       <c r="N34" t="n">
-        <v>1.82249397631057</v>
+        <v>3.17946879264223</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.999998319241153</v>
+        <v>0.0046633821655993</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.532467532467532</v>
+        <v>0.535294117647059</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>8.140000000000001</v>
+        <v>0.335</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0267013093289689</v>
+        <v>0.0066773532124809</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0150379798844783</v>
+        <v>0.0025017028972019</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0379518398938292</v>
+        <v>0.0100432432200938</v>
       </c>
       <c r="N35" t="n">
-        <v>0.328025913132296</v>
+        <v>1.99323976491969</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Rang_2g</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,14 +3640,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0185314339365179</v>
+        <v>0.35792608709083</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0316455696202532</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.689873417721519</v>
+        <v>0.388235294117647</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.068</v>
+        <v>0.0365</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0020166102101781</v>
+        <v>7.9298740772905e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0002679530674234</v>
+        <v>-0.0003983097055616</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0035724175521093</v>
+        <v>0.0006363240418118</v>
       </c>
       <c r="N36" t="n">
-        <v>2.96560325026202</v>
+        <v>0.217256824035356</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0528435201272351</v>
+        <v>0.0404188392698363</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.550632911392405</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.33</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0045863356726724</v>
+        <v>0.0801209422761146</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.0022942749451619</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0091945033225307</v>
+        <v>0.160651894577571</v>
       </c>
       <c r="N37" t="n">
-        <v>1.38979868868862</v>
+        <v>2.19509430893465</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Hautapu at d/s Taihape STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.62794502207762</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.39873417721519</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0007077260392092</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0004537267080745</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1841577.109</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5603628.214</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Hautapu at d/s Taihape STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.181242444870115</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.911392405063291</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.0469279466421736</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0427254137317682</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.124996527765865</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.34850421385556</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1841577.109</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5603628.214</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Rangitikei District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Rangitīkei-Turakina</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Middle Rangitikei</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Rang_2g</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
+++ b/trend_results/Rivers/HautapuatdsTaihapeSTP_ccf9914fe4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="64">
   <si>
     <t>site name</t>
   </si>
@@ -130,46 +130,52 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Virtually certain increasing</t>
@@ -651,31 +657,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.5672284177938109</v>
+        <v>0.311925929735682</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9090909090909089</v>
+        <v>0.8947368421052631</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="K2">
-        <v>0.0031623376623376</v>
+        <v>-0.0163058035714286</v>
       </c>
       <c r="L2">
-        <v>-0.0319362109188283</v>
+        <v>-0.0578849732142522</v>
       </c>
       <c r="M2">
-        <v>0.0362838789417551</v>
+        <v>0.0199087487096102</v>
       </c>
       <c r="N2">
-        <v>0.98823051948052</v>
+        <v>-5.82350127551021</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -690,19 +696,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,7 +728,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.470616203057875</v>
+        <v>0.558767158356863</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,16 +743,16 @@
         <v>10.69</v>
       </c>
       <c r="K3">
-        <v>-0.0126413017129931</v>
+        <v>0.0033432501281883</v>
       </c>
       <c r="L3">
-        <v>-0.068532733275216</v>
+        <v>-0.0342879020571529</v>
       </c>
       <c r="M3">
-        <v>0.08940183764171269</v>
+        <v>0.0714522990057881</v>
       </c>
       <c r="N3">
-        <v>-0.118253523975613</v>
+        <v>0.031274556858637</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -761,19 +767,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,7 +799,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.0593242574056613</v>
+        <v>0.0007471040839903</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -805,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K4">
-        <v>0.0007905844155844</v>
+        <v>0.0015015416238437</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0006676844680797999</v>
       </c>
       <c r="M4">
-        <v>0.0017814659381362</v>
+        <v>0.0022686335403726</v>
       </c>
       <c r="N4">
-        <v>6.58820346320346</v>
+        <v>13.6503783985798</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -832,19 +838,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +870,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.909123998008353</v>
+        <v>0.321674582259284</v>
       </c>
       <c r="G5">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0.775862068965517</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>225</v>
+        <v>233.8</v>
       </c>
       <c r="K5">
-        <v>-21.1534749034749</v>
+        <v>7.75989010989011</v>
       </c>
       <c r="L5">
-        <v>-47.6754252626216</v>
+        <v>-16.7961225972461</v>
       </c>
       <c r="M5">
-        <v>4.64754301108875</v>
+        <v>32.2346872247296</v>
       </c>
       <c r="N5">
-        <v>-9.401544401544401</v>
+        <v>3.31902913168953</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q5">
         <v>1841577.109</v>
@@ -903,19 +909,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -932,34 +938,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.948343747675874</v>
+        <v>0.850412290039414</v>
       </c>
       <c r="G6">
-        <v>0.222222222222222</v>
+        <v>0.218181818181818</v>
       </c>
       <c r="H6">
-        <v>0.814814814814815</v>
+        <v>0.8</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0280970856866042</v>
+        <v>0.0258360613753333</v>
       </c>
       <c r="K6">
-        <v>-0.0037490822897794</v>
+        <v>-0.0020578797574668</v>
       </c>
       <c r="L6">
-        <v>-0.008178162425034099</v>
+        <v>-0.0059021810381384</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0002250112314914</v>
       </c>
       <c r="N6">
-        <v>-13.343313721561</v>
+        <v>-7.96514502567164</v>
       </c>
       <c r="O6" t="s">
         <v>40</v>
@@ -974,19 +980,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1006,13 +1012,13 @@
         <v>37</v>
       </c>
       <c r="F7">
-        <v>0.875797852548527</v>
+        <v>0.987676807412354</v>
       </c>
       <c r="G7">
-        <v>0.189655172413793</v>
+        <v>0.206896551724138</v>
       </c>
       <c r="H7">
-        <v>0.189655172413793</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0004161710388876</v>
+        <v>-0.0004745493064675</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1045,19 +1051,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1077,7 +1083,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0607942317438832</v>
+        <v>0.168937424369248</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1089,25 +1095,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.042</v>
+        <v>0.0435</v>
       </c>
       <c r="K8">
-        <v>0.0035120192307692</v>
+        <v>0.0032611607142857</v>
       </c>
       <c r="L8">
-        <v>-0.0004993697311721</v>
+        <v>-0.0021633437122821</v>
       </c>
       <c r="M8">
-        <v>0.0077037941253629</v>
+        <v>0.0065511458908241</v>
       </c>
       <c r="N8">
-        <v>8.361950549450549</v>
+        <v>7.49692118226601</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q8">
         <v>1841577.109</v>
@@ -1116,19 +1122,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,37 +1154,37 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.37784120250697</v>
+        <v>0.31730764769583</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.696428571428571</v>
+        <v>0.719298245614035</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.220000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="K9">
-        <v>-0.0054352678571427</v>
+        <v>-0.0100343406593407</v>
       </c>
       <c r="L9">
-        <v>-0.0413950950998802</v>
+        <v>-0.0433634713887699</v>
       </c>
       <c r="M9">
-        <v>0.0225607791773623</v>
+        <v>0.0185890057870869</v>
       </c>
       <c r="N9">
-        <v>-0.066122480013902</v>
+        <v>-0.122519421969972</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1841577.109</v>
@@ -1187,16 +1193,16 @@
         <v>5603628.214</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,31 +1222,31 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.529383796942125</v>
+        <v>0.229886323274283</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.913793103448276</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08799999999999999</v>
+        <v>0.089</v>
       </c>
       <c r="K10">
-        <v>-0.0009186142804563</v>
+        <v>0.0070240384615384</v>
       </c>
       <c r="L10">
-        <v>-0.0083404236883006</v>
+        <v>-0.0062295012725281</v>
       </c>
       <c r="M10">
-        <v>0.0102827806332407</v>
+        <v>0.0133837819924064</v>
       </c>
       <c r="N10">
-        <v>-1.04387986415498</v>
+        <v>7.89217804667243</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
@@ -1255,19 +1261,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,37 +1293,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.297860500994322</v>
+        <v>0.628955752885906</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.586206896551724</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.365</v>
+        <v>0.36</v>
       </c>
       <c r="K11">
-        <v>0.0065496114763897</v>
+        <v>-0.0029987684729064</v>
       </c>
       <c r="L11">
-        <v>-0.016287875130807</v>
+        <v>-0.0226781386684844</v>
       </c>
       <c r="M11">
-        <v>0.0270784192344719</v>
+        <v>0.0187633728397065</v>
       </c>
       <c r="N11">
-        <v>1.79441410312047</v>
+        <v>-0.832991242474002</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1841577.109</v>
@@ -1326,19 +1332,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1358,37 +1364,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0286772687195994</v>
+        <v>0.228002199652724</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.568965517241379</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="K12">
-        <v>0.0023990147783251</v>
+        <v>0.0009487012987013</v>
       </c>
       <c r="L12">
-        <v>1.06759124735492E-05</v>
+        <v>-0.0009154135338344999</v>
       </c>
       <c r="M12">
-        <v>0.0042711098811862</v>
+        <v>0.0033079501655497</v>
       </c>
       <c r="N12">
-        <v>6.85432793807178</v>
+        <v>2.79029793735676</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q12">
         <v>1841577.109</v>
@@ -1397,19 +1403,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1429,13 +1435,13 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.253508774251516</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9655172413793101</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1444,22 +1450,22 @@
         <v>3.885</v>
       </c>
       <c r="K13">
-        <v>0.174666554894956</v>
+        <v>0.146872069013788</v>
       </c>
       <c r="L13">
-        <v>-0.282122471747903</v>
+        <v>-0.324926074530685</v>
       </c>
       <c r="M13">
-        <v>0.729923745587483</v>
+        <v>0.710632156330034</v>
       </c>
       <c r="N13">
-        <v>4.49592161891779</v>
+        <v>3.78049083690575</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1841577.109</v>
@@ -1468,19 +1474,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1500,37 +1506,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>2.95718203709994E-05</v>
+        <v>0.0014465587508389</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.785714285714286</v>
+        <v>0.78125</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4275</v>
+        <v>0.33</v>
       </c>
       <c r="K14">
-        <v>-0.114402215431627</v>
+        <v>-0.0462256260227371</v>
       </c>
       <c r="L14">
-        <v>-0.180085607527487</v>
+        <v>-0.107917600166381</v>
       </c>
       <c r="M14">
-        <v>-0.0504695947338002</v>
+        <v>-0.0162641504592541</v>
       </c>
       <c r="N14">
-        <v>-26.7607521477491</v>
+        <v>-14.0077654614355</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q14">
         <v>1841577.109</v>
@@ -1539,19 +1545,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,40 +1574,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>0.48909222654941</v>
+        <v>0.880170801992228</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.817391304347826</v>
+        <v>0.843478260869565</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.77</v>
+        <v>10.71</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.0279333921621484</v>
       </c>
       <c r="L15">
-        <v>-0.0300141356995459</v>
+        <v>-0.0074897470950101</v>
       </c>
       <c r="M15">
-        <v>0.030281330150169</v>
+        <v>0.0501717032967036</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.260815986574681</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1841577.109</v>
@@ -1610,19 +1616,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1642,31 +1648,31 @@
         <v>36</v>
       </c>
       <c r="F16">
-        <v>0.998635558523671</v>
+        <v>0.996981088850718</v>
       </c>
       <c r="G16">
         <v>0.0517241379310345</v>
       </c>
       <c r="H16">
-        <v>0.293103448275862</v>
+        <v>0.28448275862069</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K16">
-        <v>-0.0007304405957818</v>
+        <v>-0.0006761833455952</v>
       </c>
       <c r="L16">
-        <v>-0.0011777669636335</v>
+        <v>-0.0011206918822164</v>
       </c>
       <c r="M16">
-        <v>-0.0003024844720496</v>
+        <v>-0.0002202272032625</v>
       </c>
       <c r="N16">
-        <v>-5.21743282701353</v>
+        <v>-5.20141035073301</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
@@ -1681,19 +1687,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1713,31 +1719,31 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.998469649661518</v>
+        <v>0.990983111845</v>
       </c>
       <c r="G17">
         <v>0.0086206896551724</v>
       </c>
       <c r="H17">
-        <v>0.724137931034483</v>
+        <v>0.741379310344828</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>290</v>
+        <v>288.5</v>
       </c>
       <c r="K17">
-        <v>-24.7171825396825</v>
+        <v>-19.3580410767911</v>
       </c>
       <c r="L17">
-        <v>-39.9043989269176</v>
+        <v>-33.6784898071657</v>
       </c>
       <c r="M17">
-        <v>-10.8672474929488</v>
+        <v>-5.70466517293603</v>
       </c>
       <c r="N17">
-        <v>-8.52316639299398</v>
+        <v>-6.70989292089812</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
@@ -1752,19 +1758,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,37 +1790,37 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>5.80452693261941E-05</v>
+        <v>0.0010208708481955</v>
       </c>
       <c r="G18">
-        <v>0.490740740740741</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="H18">
-        <v>0.648148148148148</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I18">
         <v>16</v>
       </c>
       <c r="J18">
-        <v>0.010859600069747</v>
+        <v>0.0159728892089803</v>
       </c>
       <c r="K18">
-        <v>0.0011974435920393</v>
+        <v>0.0012715441327945</v>
       </c>
       <c r="L18">
-        <v>0.0004178501717982</v>
+        <v>0.0002366682465836</v>
       </c>
       <c r="M18">
-        <v>0.0021464576997314</v>
+        <v>0.0021247066204684</v>
       </c>
       <c r="N18">
-        <v>11.0265901538607</v>
+        <v>7.96063953213703</v>
       </c>
       <c r="O18" t="s">
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q18">
         <v>1841577.109</v>
@@ -1823,19 +1829,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,10 +1861,10 @@
         <v>37</v>
       </c>
       <c r="F19">
-        <v>0.335392213179848</v>
+        <v>0.938978206421188</v>
       </c>
       <c r="G19">
-        <v>0.198275862068966</v>
+        <v>0.241379310344828</v>
       </c>
       <c r="H19">
         <v>0.129310344827586</v>
@@ -1873,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.0001480642002662</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1885,7 +1891,7 @@
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1841577.109</v>
@@ -1894,19 +1900,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1923,40 +1929,40 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>0.0002532592855378</v>
+        <v>0.111159785266353</v>
       </c>
       <c r="G20">
-        <v>0.103448275862069</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="H20">
-        <v>0.775862068965517</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.04155</v>
+        <v>0.0475</v>
       </c>
       <c r="K20">
-        <v>0.0025989326765188</v>
+        <v>0.0013787748798901</v>
       </c>
       <c r="L20">
-        <v>0.0016721872526762</v>
+        <v>-0.000475827728047</v>
       </c>
       <c r="M20">
-        <v>0.0038193268162852</v>
+        <v>0.0027307691542007</v>
       </c>
       <c r="N20">
-        <v>6.25495229005748</v>
+        <v>2.90268395766355</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q20">
         <v>1841577.109</v>
@@ -1965,19 +1971,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1991,43 +1997,43 @@
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.769698619614586</v>
+        <v>0.366143238252445</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.517857142857143</v>
+        <v>0.553571428571429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.19</v>
+        <v>8.205</v>
       </c>
       <c r="K21">
-        <v>0.0030912878457376</v>
+        <v>-0.0023935124508518</v>
       </c>
       <c r="L21">
-        <v>-0.0060201451880022</v>
+        <v>-0.0140054917430023</v>
       </c>
       <c r="M21">
-        <v>0.0098891675607379</v>
+        <v>0.008377070138475299</v>
       </c>
       <c r="N21">
-        <v>0.0377446623411191</v>
+        <v>-0.0291713887977069</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q21">
         <v>1841577.109</v>
@@ -2036,16 +2042,16 @@
         <v>5603628.214</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2065,37 +2071,37 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>6.71993130396052E-05</v>
+        <v>0.0173667193271581</v>
       </c>
       <c r="G22">
         <v>0.0431034482758621</v>
       </c>
       <c r="H22">
-        <v>0.7844827586206899</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.07305</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K22">
-        <v>0.0061974548440065</v>
+        <v>0.0030103021978022</v>
       </c>
       <c r="L22">
-        <v>0.003746404444833</v>
+        <v>0.0008375979927307</v>
       </c>
       <c r="M22">
-        <v>0.0103868586636488</v>
+        <v>0.0061804504368272</v>
       </c>
       <c r="N22">
-        <v>8.483853311439519</v>
+        <v>3.42079795204795</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1841577.109</v>
@@ -2104,19 +2110,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,37 +2142,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0008499643579367</v>
+        <v>0.092242146571302</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.603448275862069</v>
+        <v>0.525862068965517</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K23">
-        <v>0.012437084148728</v>
+        <v>0.004969387755102</v>
       </c>
       <c r="L23">
-        <v>0.0051150691029085</v>
+        <v>-0.0007573678616977</v>
       </c>
       <c r="M23">
-        <v>0.0179668453562759</v>
+        <v>0.0119516677959062</v>
       </c>
       <c r="N23">
-        <v>3.55345261392228</v>
+        <v>1.38038548752835</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q23">
         <v>1841577.109</v>
@@ -2175,19 +2181,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2207,13 +2213,13 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.662832125090396</v>
+        <v>0.962154138789269</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.448275862068966</v>
+        <v>0.474137931034483</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2222,22 +2228,22 @@
         <v>0.038</v>
       </c>
       <c r="K24">
-        <v>-0.0001445389790265</v>
+        <v>-0.0008686100271462</v>
       </c>
       <c r="L24">
-        <v>-0.000998533291141</v>
+        <v>-0.00172835886136</v>
       </c>
       <c r="M24">
-        <v>0.0006698383193399</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>-0.380365734280299</v>
+        <v>-2.28581586091119</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
       </c>
       <c r="P24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q24">
         <v>1841577.109</v>
@@ -2246,19 +2252,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2278,37 +2284,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.0134308033915959</v>
+        <v>0.224873424628255</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.922413793103448</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.78</v>
+        <v>3.95</v>
       </c>
       <c r="K25">
-        <v>0.18705525606469</v>
+        <v>0.0930573248407644</v>
       </c>
       <c r="L25">
-        <v>0.0498940049988653</v>
+        <v>-0.0697556193375428</v>
       </c>
       <c r="M25">
-        <v>0.405104350086675</v>
+        <v>0.262664858073268</v>
       </c>
       <c r="N25">
-        <v>4.94855174774312</v>
+        <v>2.35588164153834</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q25">
         <v>1841577.109</v>
@@ -2317,19 +2323,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,37 +2355,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>3.06327469401513E-06</v>
+        <v>3.60316203296129E-06</v>
       </c>
       <c r="G26">
-        <v>0.0088495575221238</v>
+        <v>0.0093457943925233</v>
       </c>
       <c r="H26">
-        <v>0.628318584070796</v>
+        <v>0.654205607476635</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K26">
         <v>-0.0764685960591133</v>
       </c>
       <c r="L26">
-        <v>-0.102851639828225</v>
+        <v>-0.103767635165366</v>
       </c>
       <c r="M26">
-        <v>-0.0372560189038705</v>
+        <v>-0.0372594608795837</v>
       </c>
       <c r="N26">
-        <v>-9.55857450738916</v>
+        <v>-15.2937192118227</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q26">
         <v>1841577.109</v>
@@ -2388,19 +2394,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2420,37 +2426,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.301919862822091</v>
+        <v>0.902028500477237</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.80952380952381</v>
+        <v>0.810650887573965</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.615</v>
+        <v>10.55</v>
       </c>
       <c r="K27">
-        <v>-0.0083619505494506</v>
+        <v>0.0187243677375255</v>
       </c>
       <c r="L27">
-        <v>-0.0299727442701969</v>
+        <v>-0.0042751254501208</v>
       </c>
       <c r="M27">
-        <v>0.0154374471682163</v>
+        <v>0.0348331534636271</v>
       </c>
       <c r="N27">
-        <v>-0.07877485209091541</v>
+        <v>0.17748215864953</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1841577.109</v>
@@ -2459,19 +2465,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2491,10 +2497,10 @@
         <v>37</v>
       </c>
       <c r="F28">
-        <v>0.301176470656429</v>
+        <v>0.474170831224985</v>
       </c>
       <c r="G28">
-        <v>0.0823529411764706</v>
+        <v>0.0705882352941176</v>
       </c>
       <c r="H28">
         <v>0.205882352941176</v>
@@ -2503,16 +2509,16 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.0125</v>
+        <v>0.013</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-0.000123926323197</v>
+        <v>-0.00019043274244</v>
       </c>
       <c r="M28">
-        <v>0.0002675824175824</v>
+        <v>0.0001924157617081</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2521,7 +2527,7 @@
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1841577.109</v>
@@ -2530,19 +2536,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,7 +2568,7 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.9992717509180919</v>
+        <v>0.998151298427788</v>
       </c>
       <c r="G29">
         <v>0.0058823529411764</v>
@@ -2574,19 +2580,19 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>314.5</v>
+        <v>310</v>
       </c>
       <c r="K29">
-        <v>-19.2993254637437</v>
+        <v>-16.7859574468085</v>
       </c>
       <c r="L29">
-        <v>-30.3494818252654</v>
+        <v>-27.4127913638095</v>
       </c>
       <c r="M29">
-        <v>-8.116802093799221</v>
+        <v>-6.48497765779684</v>
       </c>
       <c r="N29">
-        <v>-6.13651048131754</v>
+        <v>-5.41482498284145</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
@@ -2601,19 +2607,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,40 +2636,40 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.0001871882153229</v>
+        <v>9.17220960882717E-05</v>
       </c>
       <c r="G30">
-        <v>0.524691358024691</v>
+        <v>0.493827160493827</v>
       </c>
       <c r="H30">
-        <v>0.561728395061728</v>
+        <v>0.592592592592593</v>
       </c>
       <c r="I30">
         <v>16</v>
       </c>
       <c r="J30">
-        <v>0.006989658784137</v>
+        <v>0.010859600069747</v>
       </c>
       <c r="K30">
-        <v>0.0002356748390383</v>
+        <v>0.0003881754776317</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.19430049237778E-05</v>
       </c>
       <c r="M30">
-        <v>0.0006276282961035</v>
+        <v>0.0009065252812398</v>
       </c>
       <c r="N30">
-        <v>3.37176457845358</v>
+        <v>3.57449146505059</v>
       </c>
       <c r="O30" t="s">
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q30">
         <v>1841577.109</v>
@@ -2672,19 +2678,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2704,13 +2710,13 @@
         <v>37</v>
       </c>
       <c r="F31">
-        <v>0.0223576253337166</v>
+        <v>0.168587497411174</v>
       </c>
       <c r="G31">
-        <v>0.2875</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="H31">
-        <v>0.09375</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2725,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.000111254949741</v>
+        <v>4.04049775608028E-05</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2734,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q31">
         <v>1841577.109</v>
@@ -2743,19 +2749,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2775,37 +2781,37 @@
         <v>37</v>
       </c>
       <c r="F32">
-        <v>0.0046380840633554</v>
+        <v>0.0060432734442097</v>
       </c>
       <c r="G32">
-        <v>0.125</v>
+        <v>0.123529411764706</v>
       </c>
       <c r="H32">
-        <v>0.6875</v>
+        <v>0.6823529411764711</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32">
-        <v>0.04105</v>
+        <v>0.042</v>
       </c>
       <c r="K32">
-        <v>0.0011963347971901</v>
+        <v>0.0010375041528239</v>
       </c>
       <c r="L32">
-        <v>0.0003859636495002</v>
+        <v>0.0003044482222198</v>
       </c>
       <c r="M32">
-        <v>0.002054257575569</v>
+        <v>0.0019081837631126</v>
       </c>
       <c r="N32">
-        <v>2.91433568134019</v>
+        <v>2.4702479829141</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q32">
         <v>1841577.109</v>
@@ -2814,19 +2820,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,37 +2852,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.999999405076669</v>
+        <v>0.997010427830385</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.469879518072289</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>8.15</v>
+        <v>8.16</v>
       </c>
       <c r="K33">
-        <v>0.0234457114854842</v>
+        <v>0.0099829188283675</v>
       </c>
       <c r="L33">
-        <v>0.0137485775579161</v>
+        <v>0.0033405720874916</v>
       </c>
       <c r="M33">
-        <v>0.0320928515631504</v>
+        <v>0.0183509904526103</v>
       </c>
       <c r="N33">
-        <v>0.287677441539684</v>
+        <v>0.122339691524112</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q33">
         <v>1841577.109</v>
@@ -2885,16 +2891,16 @@
         <v>5603628.214</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,37 +2920,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0020897284198885</v>
+        <v>0.0003900873152111</v>
       </c>
       <c r="G34">
         <v>0.0294117647058824</v>
       </c>
       <c r="H34">
-        <v>0.764705882352941</v>
+        <v>0.770588235294118</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.06950000000000001</v>
+        <v>0.07405</v>
       </c>
       <c r="K34">
-        <v>0.0022097308108863</v>
+        <v>0.0027424316163245</v>
       </c>
       <c r="L34">
-        <v>0.0008438316979447</v>
+        <v>0.001554828470841</v>
       </c>
       <c r="M34">
-        <v>0.0037303023167155</v>
+        <v>0.0043255840196366</v>
       </c>
       <c r="N34">
-        <v>3.17946879264223</v>
+        <v>3.70348631509051</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q34">
         <v>1841577.109</v>
@@ -2953,19 +2959,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2985,37 +2991,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.0046633821655993</v>
+        <v>0.0033773110169863</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.535294117647059</v>
+        <v>0.547058823529412</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.335</v>
+        <v>0.33</v>
       </c>
       <c r="K35">
-        <v>0.0066773532124809</v>
+        <v>0.0066631201051627</v>
       </c>
       <c r="L35">
-        <v>0.0025017028972019</v>
+        <v>0.0025024544272086</v>
       </c>
       <c r="M35">
-        <v>0.0100432432200938</v>
+        <v>0.0100343406593407</v>
       </c>
       <c r="N35">
-        <v>1.99323976491969</v>
+        <v>2.01912730459477</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="Q35">
         <v>1841577.109</v>
@@ -3024,19 +3030,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3053,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>0.35792608709083</v>
+        <v>0.462405285935599</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3068,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.0365</v>
+        <v>0.0355</v>
       </c>
       <c r="K36">
-        <v>7.9298740772905E-05</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>-0.0003983097055616</v>
+        <v>-0.0004495064979685</v>
       </c>
       <c r="M36">
-        <v>0.0006363240418118</v>
+        <v>0.0005324344023323</v>
       </c>
       <c r="N36">
-        <v>0.217256824035356</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q36">
         <v>1841577.109</v>
@@ -3095,19 +3101,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,7 +3133,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.0404188392698363</v>
+        <v>0.165190214740835</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3139,25 +3145,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>3.65</v>
+        <v>3.685</v>
       </c>
       <c r="K37">
-        <v>0.0801209422761146</v>
+        <v>0.0550122984570042</v>
       </c>
       <c r="L37">
-        <v>0.0022942749451619</v>
+        <v>-0.0301030219780218</v>
       </c>
       <c r="M37">
-        <v>0.160651894577571</v>
+        <v>0.145726213533003</v>
       </c>
       <c r="N37">
-        <v>2.19509430893465</v>
+        <v>1.49287105717786</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q37">
         <v>1841577.109</v>
@@ -3166,19 +3172,19 @@
         <v>5603628.214</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
